--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albua\Downloads\CheckListsAll (1)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B9716-90F2-40BB-A190-02A281DE977D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -186,19 +180,53 @@
   </si>
   <si>
     <t>05.03.2022</t>
+  </si>
+  <si>
+    <t>Mariei Andrei</t>
+  </si>
+  <si>
+    <t>Mateas Andrei</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>ClassDiagramInventory_v1.0.png</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>Din diagrama nu imi pot da seama daca erorile sunt tratate in mod corect. Exista un camp in cateva clase numit Error message, insa nu este destul.</t>
+  </si>
+  <si>
+    <t>Clasele nu au descriere.</t>
+  </si>
+  <si>
+    <t>Multe dintre asocieri si agregari nu au denumiri.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,78 +398,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,26 +568,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,23 +603,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,14 +778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,8 +830,12 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="18">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
@@ -846,8 +848,12 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
@@ -860,8 +866,12 @@
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -1110,14 +1120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,8 +1171,12 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="18">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
@@ -1175,8 +1189,12 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
@@ -1189,22 +1207,30 @@
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="37">
+        <v>44684</v>
+      </c>
       <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1221,31 +1247,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1398,14 +1442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,8 +1494,12 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="18">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
@@ -1464,8 +1512,12 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
@@ -1478,8 +1530,12 @@
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -1723,14 +1779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,8 +1832,12 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="18">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
@@ -1788,8 +1848,12 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
@@ -1800,8 +1864,12 @@
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei\Documents\GitHub\aair2650VVSS\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13618E3-0D98-4CF9-AD86-3410C7DFC73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="650" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,14 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -207,12 +215,42 @@
   </si>
   <si>
     <t>Multe dintre asocieri si agregari nu au denumiri.</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>Part line 16</t>
+  </si>
+  <si>
+    <t>Nu este clar ce semnifica parametrii min si max din constructor</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>ModifyProductController line 259</t>
+  </si>
+  <si>
+    <t>Nu se intampla nimic in cazul in care se da search la un produs inexistent</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>AddPartController line 172</t>
+  </si>
+  <si>
+    <t>In cazul in care se introduce o valoare numerica invalida se afiseaza eronat mesajul "Form contains blank field"</t>
+  </si>
+  <si>
+    <t>AddProductController line 220</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,6 +467,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -448,6 +487,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,10 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,9 +606,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,6 +658,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -778,13 +850,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -805,19 +877,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -830,7 +902,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -841,14 +913,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -859,14 +931,14 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="3">
@@ -878,19 +950,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1120,14 +1192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,19 +1218,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1171,7 +1243,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1182,14 +1254,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1200,14 +1272,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="3">
@@ -1219,19 +1291,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="30">
         <v>44684</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1425,7 +1497,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1442,14 +1516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1531,7 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
@@ -1469,19 +1543,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1494,7 +1568,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1505,14 +1579,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1523,14 +1597,14 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="3">
@@ -1542,15 +1616,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1566,40 +1640,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1762,7 +1860,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1779,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1807,19 +1907,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1832,7 +1932,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1843,12 +1943,12 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1859,12 +1959,12 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="3">
@@ -1876,8 +1976,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2110,11 +2210,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei\Documents\GitHub\aair2650VVSS\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\New\AnulIV\SemII\VVSS\Lab\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13618E3-0D98-4CF9-AD86-3410C7DFC73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD225A-65EB-4D3D-A10E-FEDD34483E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -217,34 +215,76 @@
     <t>Multe dintre asocieri si agregari nu au denumiri.</t>
   </si>
   <si>
-    <t>C09</t>
-  </si>
-  <si>
-    <t>Part line 16</t>
-  </si>
-  <si>
-    <t>Nu este clar ce semnifica parametrii min si max din constructor</t>
-  </si>
-  <si>
-    <t>C07</t>
-  </si>
-  <si>
-    <t>ModifyProductController line 259</t>
-  </si>
-  <si>
-    <t>Nu se intampla nimic in cazul in care se da search la un produs inexistent</t>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
-    <t>AddPartController line 172</t>
-  </si>
-  <si>
-    <t>In cazul in care se introduce o valoare numerica invalida se afiseaza eronat mesajul "Form contains blank field"</t>
-  </si>
-  <si>
-    <t>AddProductController line 220</t>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>5.03.2022</t>
+  </si>
+  <si>
+    <t>AddPartController,28</t>
+  </si>
+  <si>
+    <t>Private field partId not used</t>
+  </si>
+  <si>
+    <t>private int partId;</t>
+  </si>
+  <si>
+    <t>AddProductController,151</t>
+  </si>
+  <si>
+    <t>isPresent() should be called</t>
+  </si>
+  <si>
+    <t>if (result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>Removed line</t>
+  </si>
+  <si>
+    <t>if(result.isPresent())</t>
+  </si>
+  <si>
+    <t>AddProductController,31</t>
+  </si>
+  <si>
+    <t>Private field productId not used</t>
+  </si>
+  <si>
+    <t>private int productId;</t>
+  </si>
+  <si>
+    <t>AddProductController,174</t>
+  </si>
+  <si>
+    <t>AddPartController,108</t>
+  </si>
+  <si>
+    <t>Part,16</t>
+  </si>
+  <si>
+    <t>Constructor should be protected since Part is an abstract class</t>
+  </si>
+  <si>
+    <t>public Part(int partId, String name, double price, int inStock, int min, int max) {</t>
+  </si>
+  <si>
+    <t>protected Part(int partId, String name, double price, int inStock, int min, int max) {</t>
+  </si>
+  <si>
+    <t>AddPartController,165</t>
+  </si>
+  <si>
+    <t>Remove unnecesarry boolean literal</t>
+  </si>
+  <si>
+    <t>if(isOutsourced == true)</t>
+  </si>
+  <si>
+    <t>Even if it is not necesarry, it makes the code easier to read so we will keep it</t>
+  </si>
+  <si>
+    <t>ModifyPartController,34</t>
   </si>
 </sst>
 </file>
@@ -436,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,6 +553,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,7 +900,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1198,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,9 +1541,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1522,8 +1564,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1573,7 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
@@ -1640,64 +1682,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1860,9 +1878,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1885,18 +1901,18 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
@@ -1943,7 +1959,9 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
@@ -1959,7 +1977,9 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -1976,7 +1996,9 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>61</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="21"/>
     </row>
@@ -1997,84 +2019,148 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -2215,7 +2301,9 @@
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="19">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
